--- a/Design_PCB/BOM.xlsx
+++ b/Design_PCB/BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,20 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>产品编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>CD4148WT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>封装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0603</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -41,14 +33,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RGB贴片灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1206</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -61,23 +45,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电容-100nf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电阻-100Ω</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0603</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Cherry RGB MX开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pro Macro开发板</t>
+    <t>Patch RGB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capacitance-100nf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resistance-100Ω</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cherry RGB MX switch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pro Macro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Microswitch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6*6*7.5mm plus-in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>package</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,97 +442,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26.625" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="C2">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
